--- a/tut06/output/2001CB35.xlsx
+++ b/tut06/output/2001CB35.xlsx
@@ -656,16 +656,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
